--- a/recursos/Tempo-PBL.xlsx
+++ b/recursos/Tempo-PBL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Optimus 2020\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Optimus 2020\Desktop\Problema 1\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6755B14-D0B2-4907-A50A-9724821A67CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CEC6AC-C8C6-461B-8945-342902D4BE8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{9B8E14A5-E52C-4BCD-8500-9C3996E07EF0}"/>
   </bookViews>
@@ -25,24 +25,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Tempo main (s)</t>
-  </si>
-  <si>
-    <t>Tempo main-asm(s)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Qtd. Elementos</t>
   </si>
   <si>
-    <t>Número Limite: 50</t>
-  </si>
-  <si>
     <t>ID da instância: i-0796b3c8d9f7bf0c2</t>
   </si>
   <si>
     <t>SO: Amazon Linux</t>
+  </si>
+  <si>
+    <t>Multiplicação de Matrizes em Linguagem C</t>
+  </si>
+  <si>
+    <t>Tempo 1</t>
+  </si>
+  <si>
+    <t>Tempo 2</t>
+  </si>
+  <si>
+    <t>Tempo 3</t>
+  </si>
+  <si>
+    <t>Tempo 4</t>
+  </si>
+  <si>
+    <t>Multiplicação de Matrizes em Linguagem Assembly</t>
+  </si>
+  <si>
+    <t>Tempo 1 (s)</t>
+  </si>
+  <si>
+    <t>Tempo 2 (s)</t>
+  </si>
+  <si>
+    <t>Tempo 3 (s)</t>
+  </si>
+  <si>
+    <t>Tempo 4 (s)</t>
+  </si>
+  <si>
+    <t>Número máximo gerado: 50</t>
   </si>
 </sst>
 </file>
@@ -50,7 +74,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -61,9 +85,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -124,12 +146,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,137 +472,286 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8576F20F-689C-458D-97B1-4756071EF9E4}">
-  <dimension ref="B3:G14"/>
+  <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1">
+        <v>500</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4.6900000000000002E-4</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.712E-3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.58691300000000002</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5.9876880000000003</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1773.548237</v>
+      </c>
+      <c r="I5" s="4">
+        <v>27570.523415</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
+        <v>24358.291609</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1">
+        <v>100</v>
+      </c>
+      <c r="F12" s="1">
+        <v>500</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2.7599999999999999E-4</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.2300000000000002E-3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.303844</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2.9630320000000001</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1392.233616</v>
+      </c>
+      <c r="I13" s="4">
+        <v>21340.955129999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4">
+        <v>21502.151020000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3.0000000000000001E-6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>50</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4.6900000000000002E-4</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.7599999999999999E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>100</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3.712E-3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2.2300000000000002E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>500</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.58691300000000002</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.303844</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5.9876880000000003</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2.9630320000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>5000</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1773.548237</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1392.233616</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>10000</v>
-      </c>
-      <c r="C11" s="3">
-        <v>27570.523415</v>
-      </c>
-      <c r="D11" s="3">
-        <v>21340.955129999998</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
+  <mergeCells count="6">
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/recursos/Tempo-PBL.xlsx
+++ b/recursos/Tempo-PBL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Optimus 2020\Desktop\Problema 1\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CEC6AC-C8C6-461B-8945-342902D4BE8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5873A10A-126F-4AFF-8F63-3EF9155E3C17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{9B8E14A5-E52C-4BCD-8500-9C3996E07EF0}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -146,17 +146,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,7 +475,7 @@
   <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,25 +544,25 @@
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>4.6900000000000002E-4</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>3.712E-3</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0.58691300000000002</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>5.9876880000000003</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>1773.548237</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>27570.523415</v>
       </c>
     </row>
@@ -570,13 +570,13 @@
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
         <v>24358.291609</v>
       </c>
     </row>
@@ -584,35 +584,35 @@
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
@@ -668,25 +668,25 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>2.7599999999999999E-4</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>2.2300000000000002E-3</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>0.303844</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>2.9630320000000001</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>1392.233616</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>21340.955129999998</v>
       </c>
     </row>
@@ -694,13 +694,13 @@
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3">
         <v>21502.151020000001</v>
       </c>
     </row>
@@ -708,48 +708,50 @@
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3">
+        <v>15592.44752</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B2:I2"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/recursos/Tempo-PBL.xlsx
+++ b/recursos/Tempo-PBL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Optimus 2020\Desktop\Problema 1\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5873A10A-126F-4AFF-8F63-3EF9155E3C17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982A1965-AD1A-4EC4-895D-A6F3E7489201}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{9B8E14A5-E52C-4BCD-8500-9C3996E07EF0}"/>
   </bookViews>
@@ -91,7 +91,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +107,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,9 +146,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -157,6 +160,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,7 +481,7 @@
   <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,262 +493,266 @@
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
         <v>10</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="6">
         <v>50</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
         <v>100</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="6">
         <v>500</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="6">
         <v>1000</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="6">
         <v>5000</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="6">
         <v>10000</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>4.6900000000000002E-4</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>3.712E-3</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0.58691300000000002</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>5.9876880000000003</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>1773.548237</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>27570.523415</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3">
-        <v>24358.291609</v>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
+        <v>24319.558530999999</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
+        <v>24339.005288</v>
+      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="6">
         <v>10</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="6">
         <v>50</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="6">
         <v>100</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="6">
         <v>500</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="6">
         <v>1000</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="6">
         <v>5000</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="6">
         <v>10000</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>2.7599999999999999E-4</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>2.2300000000000002E-3</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>0.303844</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>2.9630320000000001</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>1392.233616</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>21340.955129999998</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>21502.151020000001</v>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2">
+        <v>21471.753570000001</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3">
-        <v>15592.44752</v>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2">
+        <v>15552.265799999999</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2">
+        <v>22439.233189999999</v>
+      </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/recursos/Tempo-PBL.xlsx
+++ b/recursos/Tempo-PBL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Optimus 2020\Desktop\Problema 1\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982A1965-AD1A-4EC4-895D-A6F3E7489201}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6539755-2FB4-4E7C-A4D3-9FFDFE5A7184}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{9B8E14A5-E52C-4BCD-8500-9C3996E07EF0}"/>
   </bookViews>
@@ -155,14 +155,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,7 +481,7 @@
   <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,52 +497,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>10</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>50</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>100</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>500</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>1000</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <v>5000</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <v>10000</v>
       </c>
     </row>
@@ -610,7 +610,9 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>29160.816735</v>
+      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
@@ -623,52 +625,52 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>10</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>50</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>100</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>500</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <v>1000</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <v>5000</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="4">
         <v>10000</v>
       </c>
     </row>
@@ -741,18 +743,18 @@
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/recursos/Tempo-PBL.xlsx
+++ b/recursos/Tempo-PBL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Optimus 2020\Desktop\Problema 1\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6539755-2FB4-4E7C-A4D3-9FFDFE5A7184}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC14B47-2078-4238-97E8-E8B4C865D7E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{9B8E14A5-E52C-4BCD-8500-9C3996E07EF0}"/>
   </bookViews>
@@ -76,7 +76,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +86,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -144,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -164,6 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8576F20F-689C-458D-97B1-4756071EF9E4}">
-  <dimension ref="B2:I19"/>
+  <dimension ref="B2:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +590,9 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>1730.3349800000001</v>
+      </c>
       <c r="I6" s="2">
         <v>24319.558530999999</v>
       </c>
@@ -595,7 +606,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>1690.43894</v>
+      </c>
       <c r="I7" s="2">
         <v>24339.005288</v>
       </c>
@@ -609,7 +622,9 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>1677.2099900000001</v>
+      </c>
       <c r="I8" s="2">
         <v>29160.816735</v>
       </c>
@@ -742,19 +757,22 @@
         <v>22439.233189999999</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D19" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/recursos/Tempo-PBL.xlsx
+++ b/recursos/Tempo-PBL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Optimus 2020\Desktop\Problema 1\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC14B47-2078-4238-97E8-E8B4C865D7E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B641001-6BE2-4AAE-98FB-BFC205887A05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{9B8E14A5-E52C-4BCD-8500-9C3996E07EF0}"/>
   </bookViews>
@@ -166,13 +166,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,7 +490,7 @@
   <dimension ref="B2:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,28 +506,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -585,11 +585,21 @@
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="C6" s="2">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4.6900000000000002E-4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.7200000000000002E-3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.59293799999999997</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5.6170660000000003</v>
+      </c>
       <c r="H6" s="2">
         <v>1730.3349800000001</v>
       </c>
@@ -601,11 +611,21 @@
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="2">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4.7199999999999998E-4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3.7100000000000002E-3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.57669400000000004</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5.7696490000000002</v>
+      </c>
       <c r="H7" s="2">
         <v>1690.43894</v>
       </c>
@@ -617,11 +637,21 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="C8" s="2">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4.7399999999999997E-4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3.7299999999999998E-3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.59188099999999999</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5.8936479999999998</v>
+      </c>
       <c r="H8" s="2">
         <v>1677.2099900000001</v>
       </c>
@@ -640,28 +670,28 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -719,12 +749,24 @@
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="C14" s="2">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2.7500000000000002E-4</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.2430000000000002E-3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.30212499999999998</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2.5435300000000001</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1386.16563</v>
+      </c>
       <c r="I14" s="2">
         <v>21471.753570000001</v>
       </c>
@@ -733,12 +775,24 @@
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="C15" s="2">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.7599999999999999E-4</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.258E-3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.30479699999999998</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2.5441699999999998</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1359.10005</v>
+      </c>
       <c r="I15" s="2">
         <v>15552.265799999999</v>
       </c>
@@ -747,32 +801,44 @@
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="C16" s="2">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2.7099999999999997E-4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2.2420000000000001E-3</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.30190600000000001</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2.5185300000000002</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1389.1965499999999</v>
+      </c>
       <c r="I16" s="2">
         <v>22439.233189999999</v>
       </c>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="M21" s="7"/>
+      <c r="M21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/recursos/Tempo-PBL.xlsx
+++ b/recursos/Tempo-PBL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Optimus 2020\Desktop\Problema 1\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B641001-6BE2-4AAE-98FB-BFC205887A05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEB522F-69DA-432D-9CC8-35F5EF68787F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{9B8E14A5-E52C-4BCD-8500-9C3996E07EF0}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="12240" xr2:uid="{9B8E14A5-E52C-4BCD-8500-9C3996E07EF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Qtd. Elementos</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Número máximo gerado: 50</t>
+  </si>
+  <si>
+    <t>Média dos tempos (s)</t>
   </si>
 </sst>
 </file>
@@ -76,7 +79,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,14 +89,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -148,11 +143,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -166,11 +187,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -487,49 +518,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8576F20F-689C-458D-97B1-4756071EF9E4}">
-  <dimension ref="B2:M21"/>
+  <dimension ref="B2:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="L5" sqref="L5:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="K3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,8 +595,16 @@
       <c r="I4" s="4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -580,8 +629,16 @@
       <c r="I5" s="2">
         <v>27570.523415</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K5" s="4">
+        <v>10</v>
+      </c>
+      <c r="L5" s="10">
+        <f>SUM(C5:C8)/4</f>
+        <v>5.2499999999999997E-6</v>
+      </c>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -606,8 +663,16 @@
       <c r="I6" s="2">
         <v>24319.558530999999</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="4">
+        <v>50</v>
+      </c>
+      <c r="L6" s="10">
+        <f>SUM(D5:D8)/4</f>
+        <v>4.7100000000000001E-4</v>
+      </c>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -632,8 +697,16 @@
       <c r="I7" s="2">
         <v>24339.005288</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K7" s="4">
+        <v>100</v>
+      </c>
+      <c r="L7" s="10">
+        <f>SUM(E5:E8)/4</f>
+        <v>3.718E-3</v>
+      </c>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -658,8 +731,16 @@
       <c r="I8" s="2">
         <v>29160.816735</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="4">
+        <v>500</v>
+      </c>
+      <c r="L8" s="10">
+        <f>SUM(F5:F8)/4</f>
+        <v>0.58710649999999998</v>
+      </c>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -668,32 +749,56 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+      <c r="K9" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="10">
+        <f>SUM(G5:G8)/4</f>
+        <v>5.81701275</v>
+      </c>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="K10" s="4">
+        <v>5000</v>
+      </c>
+      <c r="L10" s="10">
+        <f>SUM(H5:H8)/4</f>
+        <v>1717.8830367500002</v>
+      </c>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="K11" s="4">
+        <v>10000</v>
+      </c>
+      <c r="L11" s="10">
+        <f>SUM(I5:I8)/4</f>
+        <v>26347.475992250002</v>
+      </c>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,7 +824,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -742,10 +847,15 @@
         <v>1392.233616</v>
       </c>
       <c r="I13" s="2">
-        <v>21340.955129999998</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>21340.955137000001</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -762,16 +872,23 @@
         <v>0.30212499999999998</v>
       </c>
       <c r="G14" s="2">
-        <v>2.5435300000000001</v>
+        <v>2.5435379999999999</v>
       </c>
       <c r="H14" s="2">
-        <v>1386.16563</v>
+        <v>1386.1656350000001</v>
       </c>
       <c r="I14" s="2">
-        <v>21471.753570000001</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>21471.753573000002</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
@@ -788,16 +905,24 @@
         <v>0.30479699999999998</v>
       </c>
       <c r="G15" s="2">
-        <v>2.5441699999999998</v>
+        <v>2.544171</v>
       </c>
       <c r="H15" s="2">
-        <v>1359.10005</v>
+        <v>1359.100052</v>
       </c>
       <c r="I15" s="2">
-        <v>15552.265799999999</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15552.265844</v>
+      </c>
+      <c r="K15" s="4">
+        <v>10</v>
+      </c>
+      <c r="L15" s="10">
+        <f>SUM(C13:C16)/4</f>
+        <v>3.2500000000000002E-6</v>
+      </c>
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
@@ -814,34 +939,103 @@
         <v>0.30190600000000001</v>
       </c>
       <c r="G16" s="2">
-        <v>2.5185300000000002</v>
+        <v>2.5185390000000001</v>
       </c>
       <c r="H16" s="2">
         <v>1389.1965499999999</v>
       </c>
       <c r="I16" s="2">
-        <v>22439.233189999999</v>
-      </c>
+        <v>22439.233194</v>
+      </c>
+      <c r="K16" s="4">
+        <v>50</v>
+      </c>
+      <c r="L16" s="10">
+        <f>SUM(D13:D16)/4</f>
+        <v>2.745E-4</v>
+      </c>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K17" s="4">
+        <v>100</v>
+      </c>
+      <c r="L17" s="10">
+        <f>SUM(E13:E16)/4</f>
+        <v>2.2432500000000005E-3</v>
+      </c>
+      <c r="M17" s="11"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="K18" s="4">
+        <v>500</v>
+      </c>
+      <c r="L18" s="10">
+        <f>SUM(F13:F16)/4</f>
+        <v>0.30316799999999999</v>
+      </c>
+      <c r="M18" s="11"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="K19" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L19" s="10">
+        <f>SUM(G13:G16)/4</f>
+        <v>2.6423200000000002</v>
+      </c>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K20" s="4">
+        <v>5000</v>
+      </c>
+      <c r="L20" s="10">
+        <f>SUM(H13:H16)/4</f>
+        <v>1381.6739632499998</v>
+      </c>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="M21" s="5"/>
+      <c r="K21" s="4">
+        <v>10000</v>
+      </c>
+      <c r="L21" s="10">
+        <f>SUM(I13:I16)/4</f>
+        <v>20201.051937000004</v>
+      </c>
+      <c r="M21" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="24">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
@@ -852,5 +1046,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="L5:L11 L15:L21" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/recursos/Tempo-PBL.xlsx
+++ b/recursos/Tempo-PBL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Optimus 2020\Desktop\Problema 1\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEB522F-69DA-432D-9CC8-35F5EF68787F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDA2B33-D80C-494B-93B9-0603F25C38C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="12240" xr2:uid="{9B8E14A5-E52C-4BCD-8500-9C3996E07EF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{9B8E14A5-E52C-4BCD-8500-9C3996E07EF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
-  <si>
-    <t>Qtd. Elementos</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>ID da instância: i-0796b3c8d9f7bf0c2</t>
   </si>
@@ -37,18 +34,6 @@
   </si>
   <si>
     <t>Multiplicação de Matrizes em Linguagem C</t>
-  </si>
-  <si>
-    <t>Tempo 1</t>
-  </si>
-  <si>
-    <t>Tempo 2</t>
-  </si>
-  <si>
-    <t>Tempo 3</t>
-  </si>
-  <si>
-    <t>Tempo 4</t>
   </si>
   <si>
     <t>Multiplicação de Matrizes em Linguagem Assembly</t>
@@ -70,6 +55,9 @@
   </si>
   <si>
     <t>Média dos tempos (s)</t>
+  </si>
+  <si>
+    <t>Dimensão</t>
   </si>
 </sst>
 </file>
@@ -187,14 +175,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -521,7 +509,7 @@
   <dimension ref="B2:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:M11"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,39 +528,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="K3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="K3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4">
         <v>10</v>
@@ -596,13 +584,13 @@
         <v>10000</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M4" s="9"/>
-      <c r="N4" s="8"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -759,16 +747,16 @@
       <c r="M9" s="11"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="B10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
       <c r="K10" s="4">
         <v>5000</v>
       </c>
@@ -779,16 +767,16 @@
       <c r="M10" s="11"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
       <c r="K11" s="4">
         <v>10000</v>
       </c>
@@ -800,7 +788,7 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4">
         <v>10</v>
@@ -826,7 +814,7 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2">
         <v>3.0000000000000001E-6</v>
@@ -849,15 +837,15 @@
       <c r="I13" s="2">
         <v>21340.955137000001</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="K13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2">
         <v>3.0000000000000001E-6</v>
@@ -881,16 +869,16 @@
         <v>21471.753573000002</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M14" s="9"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2">
         <v>3.0000000000000001E-6</v>
@@ -924,7 +912,7 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2">
         <v>3.9999999999999998E-6</v>
@@ -967,11 +955,11 @@
       <c r="M17" s="11"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="D18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
       <c r="K18" s="4">
         <v>500</v>
       </c>
@@ -982,11 +970,11 @@
       <c r="M18" s="11"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="D19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
       <c r="K19" s="4">
         <v>1000</v>
       </c>
@@ -1024,24 +1012,24 @@
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="B3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/recursos/Tempo-PBL.xlsx
+++ b/recursos/Tempo-PBL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Optimus 2020\Desktop\Problema 1\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDA2B33-D80C-494B-93B9-0603F25C38C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4145A6BD-5A4D-426D-A296-BDAB68E836D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{9B8E14A5-E52C-4BCD-8500-9C3996E07EF0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>ID da instância: i-0796b3c8d9f7bf0c2</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>Dimensão</t>
+  </si>
+  <si>
+    <t>Tempo C</t>
+  </si>
+  <si>
+    <t>Tempo Assembly</t>
+  </si>
+  <si>
+    <t>Melhoria</t>
   </si>
 </sst>
 </file>
@@ -161,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,19 +187,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -207,6 +227,1154 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$L$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tempo C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$K$28:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$L$28:$L$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.2499999999999997E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.718E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58710649999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.81701275</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1717.8830367500002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26347.475992250002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A19-4430-9566-83FB88EAFC85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$M$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tempo Assembly</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$K$28:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$M$28:$M$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.2500000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.745E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2432500000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30316799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6423200000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1381.6739632499998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20201.051937000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6A19-4430-9566-83FB88EAFC85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="131574400"/>
+        <c:axId val="131571904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="131574400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="131571904"/>
+        <c:crossesAt val="1.0000000000000005E-7"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="131571904"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="131574400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1009651</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D08705B-9CFE-4FB1-A789-CA9D4DA61198}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8576F20F-689C-458D-97B1-4756071EF9E4}">
-  <dimension ref="B2:O21"/>
+  <dimension ref="B2:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,38 +1691,38 @@
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
     <col min="11" max="11" width="18.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="K3" s="7" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="K3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
@@ -586,10 +1754,10 @@
       <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="9"/>
+      <c r="M4" s="12"/>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -620,11 +1788,11 @@
       <c r="K5" s="4">
         <v>10</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="8">
         <f>SUM(C5:C8)/4</f>
         <v>5.2499999999999997E-6</v>
       </c>
-      <c r="M5" s="11"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -654,11 +1822,11 @@
       <c r="K6" s="4">
         <v>50</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="8">
         <f>SUM(D5:D8)/4</f>
         <v>4.7100000000000001E-4</v>
       </c>
-      <c r="M6" s="11"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -688,11 +1856,11 @@
       <c r="K7" s="4">
         <v>100</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="8">
         <f>SUM(E5:E8)/4</f>
         <v>3.718E-3</v>
       </c>
-      <c r="M7" s="11"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -722,11 +1890,11 @@
       <c r="K8" s="4">
         <v>500</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="8">
         <f>SUM(F5:F8)/4</f>
         <v>0.58710649999999998</v>
       </c>
-      <c r="M8" s="11"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
@@ -740,51 +1908,51 @@
       <c r="K9" s="4">
         <v>1000</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="8">
         <f>SUM(G5:G8)/4</f>
         <v>5.81701275</v>
       </c>
-      <c r="M9" s="11"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
       <c r="K10" s="4">
         <v>5000</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="8">
         <f>SUM(H5:H8)/4</f>
         <v>1717.8830367500002</v>
       </c>
-      <c r="M10" s="11"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
       <c r="K11" s="4">
         <v>10000</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="8">
         <f>SUM(I5:I8)/4</f>
         <v>26347.475992250002</v>
       </c>
-      <c r="M11" s="11"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -837,11 +2005,11 @@
       <c r="I13" s="2">
         <v>21340.955137000001</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -871,10 +2039,10 @@
       <c r="K14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="9"/>
+      <c r="M14" s="12"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -904,11 +2072,11 @@
       <c r="K15" s="4">
         <v>10</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="8">
         <f>SUM(C13:C16)/4</f>
         <v>3.2500000000000002E-6</v>
       </c>
-      <c r="M15" s="11"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -938,80 +2106,247 @@
       <c r="K16" s="4">
         <v>50</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="8">
         <f>SUM(D13:D16)/4</f>
         <v>2.745E-4</v>
       </c>
-      <c r="M16" s="11"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="K17" s="4">
         <v>100</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="8">
         <f>SUM(E13:E16)/4</f>
         <v>2.2432500000000005E-3</v>
       </c>
-      <c r="M17" s="11"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
       <c r="K18" s="4">
         <v>500</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="8">
         <f>SUM(F13:F16)/4</f>
         <v>0.30316799999999999</v>
       </c>
-      <c r="M18" s="11"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
       <c r="K19" s="4">
         <v>1000</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="8">
         <f>SUM(G13:G16)/4</f>
         <v>2.6423200000000002</v>
       </c>
-      <c r="M19" s="11"/>
+      <c r="M19" s="9"/>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="K20" s="4">
         <v>5000</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="8">
         <f>SUM(H13:H16)/4</f>
         <v>1381.6739632499998</v>
       </c>
-      <c r="M20" s="11"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="K21" s="4">
         <v>10000</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="8">
         <f>SUM(I13:I16)/4</f>
         <v>20201.051937000004</v>
       </c>
-      <c r="M21" s="11"/>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K27" s="7"/>
+      <c r="L27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K28" s="4">
+        <v>10</v>
+      </c>
+      <c r="L28" s="2">
+        <v>5.2499999999999997E-6</v>
+      </c>
+      <c r="M28" s="13">
+        <v>3.2500000000000002E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K29" s="4">
+        <v>50</v>
+      </c>
+      <c r="L29" s="2">
+        <v>4.7100000000000001E-4</v>
+      </c>
+      <c r="M29" s="13">
+        <v>2.745E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K30" s="4">
+        <v>100</v>
+      </c>
+      <c r="L30" s="2">
+        <v>3.718E-3</v>
+      </c>
+      <c r="M30" s="13">
+        <v>2.2432500000000005E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K31" s="4">
+        <v>500</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.58710649999999998</v>
+      </c>
+      <c r="M31" s="13">
+        <v>0.30316799999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L32" s="2">
+        <v>5.81701275</v>
+      </c>
+      <c r="M32" s="13">
+        <v>2.6423200000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K33" s="4">
+        <v>5000</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1717.8830367500002</v>
+      </c>
+      <c r="M33" s="13">
+        <v>1381.6739632499998</v>
+      </c>
+    </row>
+    <row r="34" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K34" s="4">
+        <v>10000</v>
+      </c>
+      <c r="L34" s="2">
+        <v>26347.475992250002</v>
+      </c>
+      <c r="M34" s="13">
+        <v>20201.051937000004</v>
+      </c>
+    </row>
+    <row r="39" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M39" s="14"/>
+    </row>
+    <row r="40" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K40" s="4">
+        <v>10</v>
+      </c>
+      <c r="L40" s="16">
+        <f>L5/L15</f>
+        <v>1.6153846153846152</v>
+      </c>
+      <c r="M40" s="15"/>
+    </row>
+    <row r="41" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K41" s="4">
+        <v>50</v>
+      </c>
+      <c r="L41" s="16">
+        <f t="shared" ref="L41:L46" si="0">L6/L16</f>
+        <v>1.715846994535519</v>
+      </c>
+      <c r="M41" s="15"/>
+    </row>
+    <row r="42" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K42" s="4">
+        <v>100</v>
+      </c>
+      <c r="L42" s="16">
+        <f t="shared" si="0"/>
+        <v>1.6574166945280282</v>
+      </c>
+      <c r="M42" s="15"/>
+    </row>
+    <row r="43" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K43" s="4">
+        <v>500</v>
+      </c>
+      <c r="L43" s="16">
+        <f t="shared" si="0"/>
+        <v>1.9365714719231581</v>
+      </c>
+      <c r="M43" s="15"/>
+    </row>
+    <row r="44" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K44" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L44" s="16">
+        <f t="shared" si="0"/>
+        <v>2.2014792871416025</v>
+      </c>
+      <c r="M44" s="15"/>
+    </row>
+    <row r="45" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K45" s="4">
+        <v>5000</v>
+      </c>
+      <c r="L45" s="16">
+        <f t="shared" si="0"/>
+        <v>1.2433345944430789</v>
+      </c>
+      <c r="M45" s="15"/>
+    </row>
+    <row r="46" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K46" s="4">
+        <v>10000</v>
+      </c>
+      <c r="L46" s="16">
+        <f t="shared" si="0"/>
+        <v>1.3042625737718283</v>
+      </c>
+      <c r="M46" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
@@ -1022,14 +2357,12 @@
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1037,5 +2370,6 @@
   <ignoredErrors>
     <ignoredError sqref="L5:L11 L15:L21" formulaRange="1"/>
   </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>